--- a/classification/droptc/sentence/neo-bert/freeze/90995999/prediction.xlsx
+++ b/classification/droptc/sentence/neo-bert/freeze/90995999/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7969858050346375</v>
+        <v>0.8096911907196045</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7886241674423218</v>
+        <v>0.9977515339851379</v>
       </c>
     </row>
     <row r="4">
@@ -539,14 +539,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4318518936634064</v>
+        <v>0.4799059331417084</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9204881191253662</v>
+        <v>0.6330607533454895</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4662386178970337</v>
+        <v>0.9995346069335938</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8472588062286377</v>
+        <v>0.9977419376373291</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6931904554367065</v>
+        <v>0.9846653342247009</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4221856594085693</v>
+        <v>0.9605230689048767</v>
       </c>
     </row>
     <row r="10">
@@ -702,7 +702,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4299936294555664</v>
+        <v>0.9846653342247009</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3818319439888</v>
+        <v>0.984376072883606</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.815220832824707</v>
+        <v>0.9948252439498901</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6278016567230225</v>
+        <v>0.9879128336906433</v>
       </c>
     </row>
     <row r="14">
@@ -814,7 +814,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7259645462036133</v>
+        <v>0.9679324626922607</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>ParamViolation</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7721073627471924</v>
+        <v>0.602782666683197</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9628177285194397</v>
+        <v>0.9158104062080383</v>
       </c>
     </row>
     <row r="17">
@@ -898,19 +898,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5189363360404968</v>
+        <v>0.9534620642662048</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5642769932746887</v>
+        <v>0.7105422019958496</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8453029990196228</v>
+        <v>0.9949420094490051</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8901774883270264</v>
+        <v>0.8711574673652649</v>
       </c>
     </row>
     <row r="21">
@@ -1010,19 +1010,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6257880926132202</v>
+        <v>0.9973044395446777</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.668038010597229</v>
+        <v>0.981181263923645</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.60391765832901</v>
+        <v>0.9932152032852173</v>
       </c>
     </row>
     <row r="24">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6422079205513</v>
+        <v>0.9975323677062988</v>
       </c>
     </row>
     <row r="25">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8575558662414551</v>
+        <v>0.6937594413757324</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9337631464004517</v>
+        <v>0.5865609645843506</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8352727293968201</v>
+        <v>0.9960218071937561</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7289336323738098</v>
+        <v>0.9977515339851379</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9230827689170837</v>
+        <v>0.993571400642395</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7136753797531128</v>
+        <v>0.9833945035934448</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9333040714263916</v>
+        <v>0.9839873313903809</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1327,10 +1327,10 @@
         </is>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4186347424983978</v>
+        <v>0.8061440587043762</v>
       </c>
     </row>
     <row r="33">
@@ -1351,14 +1351,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4273614585399628</v>
+        <v>0.9517815709114075</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6314008831977844</v>
+        <v>0.9883522391319275</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5755992531776428</v>
+        <v>0.9975854158401489</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9552919864654541</v>
+        <v>0.9979288578033447</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8630766868591309</v>
+        <v>0.97022545337677</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9878301024436951</v>
+        <v>0.9938064813613892</v>
       </c>
     </row>
     <row r="39">
@@ -1519,14 +1519,14 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8776156902313232</v>
+        <v>0.9490747451782227</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8427776098251343</v>
+        <v>0.3658705353736877</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9172731637954712</v>
+        <v>0.9814956784248352</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.97297203540802</v>
+        <v>0.9618234634399414</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8251739740371704</v>
+        <v>0.9897342920303345</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7739998698234558</v>
+        <v>0.5373642444610596</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5265368819236755</v>
+        <v>0.9830422401428223</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8144936561584473</v>
+        <v>0.9483016133308411</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8473086953163147</v>
+        <v>0.8328163027763367</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7025090456008911</v>
+        <v>0.9968183040618896</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9333040714263916</v>
+        <v>0.999309778213501</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8154929876327515</v>
+        <v>0.9991416931152344</v>
       </c>
     </row>
     <row r="51">
@@ -1855,14 +1855,14 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7370452284812927</v>
+        <v>0.4862252473831177</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.61839759349823</v>
+        <v>0.8473050594329834</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9707240462303162</v>
+        <v>0.9991416931152344</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.4824745953083038</v>
+        <v>0.8398004770278931</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9035289883613586</v>
+        <v>0.9993022680282593</v>
       </c>
     </row>
     <row r="56">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8995498418807983</v>
+        <v>0.9982900023460388</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9823546409606934</v>
+        <v>0.9940598011016846</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.7923392653465271</v>
+        <v>0.9688451290130615</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8931022882461548</v>
+        <v>0.9929424524307251</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5104490518569946</v>
+        <v>0.9636684060096741</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4786819815635681</v>
+        <v>0.9704984426498413</v>
       </c>
     </row>
     <row r="62">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6992565393447876</v>
+        <v>0.9917375445365906</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9311591386795044</v>
+        <v>0.9114066958427429</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3616465628147125</v>
+        <v>0.8112022280693054</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9025251865386963</v>
+        <v>0.9978625178337097</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8210657835006714</v>
+        <v>0.9978625178337097</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5541862845420837</v>
+        <v>0.8394602537155151</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8995498418807983</v>
+        <v>0.9978625178337097</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8704917430877686</v>
+        <v>0.9258378744125366</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.4474107623100281</v>
+        <v>0.9650440812110901</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9454867243766785</v>
+        <v>0.9512616991996765</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.6737701296806335</v>
+        <v>0.9982588887214661</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.6000002026557922</v>
+        <v>0.985995352268219</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5022531747817993</v>
+        <v>0.8123031258583069</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.899679958820343</v>
+        <v>0.8001549243927002</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9135146737098694</v>
+        <v>0.985995352268219</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7498366236686707</v>
+        <v>0.964779257774353</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9629279971122742</v>
+        <v>0.985995352268219</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9241083860397339</v>
+        <v>0.9996355772018433</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9333040714263916</v>
+        <v>0.9880472421646118</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8744985461235046</v>
+        <v>0.8816467523574829</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5319606065750122</v>
+        <v>0.9880472421646118</v>
       </c>
     </row>
     <row r="83">
@@ -2751,14 +2751,14 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9333040714263916</v>
+        <v>0.4073842465877533</v>
       </c>
     </row>
     <row r="84">
@@ -2779,14 +2779,14 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.832552969455719</v>
+        <v>0.4073842465877533</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.912517249584198</v>
+        <v>0.9999486207962036</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.7594761252403259</v>
+        <v>0.9964291453361511</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.6295123696327209</v>
+        <v>0.9156857132911682</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.7182760238647461</v>
+        <v>0.992603600025177</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9384072422981262</v>
+        <v>0.9474056363105774</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5429336428642273</v>
+        <v>0.9966827034950256</v>
       </c>
     </row>
     <row r="91">
@@ -2970,19 +2970,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E91" t="b">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.7969858050346375</v>
+        <v>0.9963420033454895</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.6847019791603088</v>
+        <v>0.9960126876831055</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7779949307441711</v>
+        <v>0.9955635070800781</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.5429706573486328</v>
+        <v>0.995528519153595</v>
       </c>
     </row>
     <row r="95">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3091,10 +3091,10 @@
         </is>
       </c>
       <c r="E95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3897173702716827</v>
+        <v>0.99601811170578</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.7289336323738098</v>
+        <v>0.7363147139549255</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.7555651664733887</v>
+        <v>0.8882215619087219</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9079458713531494</v>
+        <v>0.9982776641845703</v>
       </c>
     </row>
     <row r="99">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="E99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.458235889673233</v>
+        <v>0.8032540082931519</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.7602068185806274</v>
+        <v>0.9908686876296997</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.7249630689620972</v>
+        <v>0.954409122467041</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8192483186721802</v>
+        <v>0.8393629789352417</v>
       </c>
     </row>
     <row r="103">
@@ -3306,19 +3306,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.6977585554122925</v>
+        <v>0.5853184461593628</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.7014607787132263</v>
+        <v>0.9035323858261108</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.5084125399589539</v>
+        <v>0.9934841990470886</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9853132367134094</v>
+        <v>0.9373189210891724</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.6958744525909424</v>
+        <v>0.9049150943756104</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9680696129798889</v>
+        <v>0.9573572278022766</v>
       </c>
     </row>
     <row r="109">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.5089731216430664</v>
+        <v>0.9026151299476624</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.8133981823921204</v>
+        <v>0.9977515339851379</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6082262396812439</v>
+        <v>0.9569651484489441</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5060884952545166</v>
+        <v>0.9304052591323853</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.4969625771045685</v>
+        <v>0.9769899845123291</v>
       </c>
     </row>
     <row r="114">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3623,10 +3623,10 @@
         </is>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.4366367161273956</v>
+        <v>0.9564852714538574</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.8412823677062988</v>
+        <v>0.8578009605407715</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.5001886487007141</v>
+        <v>0.9649368524551392</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.8204737305641174</v>
+        <v>0.9967016577720642</v>
       </c>
     </row>
     <row r="118">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3735,10 +3735,10 @@
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.8905122876167297</v>
+        <v>0.9646557569503784</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9681310653686523</v>
+        <v>0.4808760583400726</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9373764395713806</v>
+        <v>0.9977515339851379</v>
       </c>
     </row>
     <row r="121">
@@ -3815,14 +3815,14 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.4017786681652069</v>
+        <v>0.983479380607605</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3762628734111786</v>
+        <v>0.999148964881897</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.8238911628723145</v>
+        <v>0.983479380607605</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.725429356098175</v>
+        <v>0.999148964881897</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7329072952270508</v>
+        <v>0.983479380607605</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.8030159473419189</v>
+        <v>0.9999618530273438</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4969625771045685</v>
+        <v>0.486550360918045</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.8964283466339111</v>
+        <v>0.9977515339851379</v>
       </c>
     </row>
     <row r="129">
@@ -4039,14 +4039,14 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9707240462303162</v>
+        <v>0.4544350802898407</v>
       </c>
     </row>
     <row r="130">
@@ -4067,14 +4067,14 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9261510968208313</v>
+        <v>0.5390796661376953</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.7648959755897522</v>
+        <v>0.9994993209838867</v>
       </c>
     </row>
     <row r="132">
@@ -4118,19 +4118,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.6465903520584106</v>
+        <v>0.4144411981105804</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.6258129477500916</v>
+        <v>0.9922007918357849</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.7272823452949524</v>
+        <v>0.902706503868103</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8729814291000366</v>
+        <v>0.8593498468399048</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.7289336323738098</v>
+        <v>0.93519127368927</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.8318976759910583</v>
+        <v>0.9976296424865723</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.3895151019096375</v>
+        <v>0.9073349237442017</v>
       </c>
     </row>
     <row r="139">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4323,10 +4323,10 @@
         </is>
       </c>
       <c r="E139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.4366367161273956</v>
+        <v>0.9976943135261536</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.8313903212547302</v>
+        <v>0.9926441311836243</v>
       </c>
     </row>
     <row r="141">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="E141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.6965640187263489</v>
+        <v>0.9115559458732605</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.4948765635490417</v>
+        <v>0.9977515339851379</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.5284077525138855</v>
+        <v>0.6128480434417725</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.7654792666435242</v>
+        <v>0.9974943399429321</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.8666777014732361</v>
+        <v>0.6128480434417725</v>
       </c>
     </row>
     <row r="146">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4519,10 +4519,10 @@
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.4073823988437653</v>
+        <v>0.9970958232879639</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9698618054389954</v>
+        <v>0.9258378744125366</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9459256529808044</v>
+        <v>0.9784935116767883</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.6115359663963318</v>
+        <v>0.9125005006790161</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.4969625771045685</v>
+        <v>0.782545804977417</v>
       </c>
     </row>
     <row r="151">
@@ -4650,19 +4650,19 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E151" t="b">
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.3762628734111786</v>
+        <v>0.9977515339851379</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9464377164840698</v>
+        <v>0.9097935557365417</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.6857109665870667</v>
+        <v>0.9996976852416992</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.48486328125</v>
+        <v>0.9863559007644653</v>
       </c>
     </row>
     <row r="155">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.6802600622177124</v>
+        <v>0.9933784604072571</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.8739380240440369</v>
+        <v>0.977227509021759</v>
       </c>
     </row>
     <row r="157">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4827,10 +4827,10 @@
         </is>
       </c>
       <c r="E157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.63103187084198</v>
+        <v>0.993176281452179</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.7969858050346375</v>
+        <v>0.9853176474571228</v>
       </c>
     </row>
     <row r="159">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4883,10 +4883,10 @@
         </is>
       </c>
       <c r="E159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.40422722697258</v>
+        <v>0.9968551397323608</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.7258124947547913</v>
+        <v>0.7696826457977295</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9437198638916016</v>
+        <v>0.9881865382194519</v>
       </c>
     </row>
     <row r="162">
@@ -4958,19 +4958,19 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.3923862874507904</v>
+        <v>0.9296167492866516</v>
       </c>
     </row>
     <row r="163">
@@ -4986,19 +4986,19 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E163" t="b">
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.897929310798645</v>
+        <v>0.860485851764679</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.7481923699378967</v>
+        <v>0.9867658615112305</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9333040714263916</v>
+        <v>0.9967380166053772</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.8261465430259705</v>
+        <v>0.9748525619506836</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.5755992531776428</v>
+        <v>0.9374314546585083</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.7654792666435242</v>
+        <v>0.4171569049358368</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.2415415048599243</v>
+        <v>0.9977515339851379</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9332223534584045</v>
+        <v>0.9374314546585083</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.8373941779136658</v>
+        <v>0.8501614928245544</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8412823677062988</v>
+        <v>0.9977515339851379</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.7891862392425537</v>
+        <v>0.9877727627754211</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9292827844619751</v>
+        <v>0.9963946938514709</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.7048709988594055</v>
+        <v>0.9877727627754211</v>
       </c>
     </row>
     <row r="176">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.4915894269943237</v>
+        <v>0.9877727627754211</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9463706016540527</v>
+        <v>0.9963946938514709</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.2643562257289886</v>
+        <v>0.9855921268463135</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.4757344126701355</v>
+        <v>0.983173668384552</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9204881191253662</v>
+        <v>0.9624472260475159</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.6443084478378296</v>
+        <v>0.9422640204429626</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.821970522403717</v>
+        <v>0.9944561123847961</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.8724997043609619</v>
+        <v>0.9721975922584534</v>
       </c>
     </row>
     <row r="184">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5583,10 +5583,10 @@
         </is>
       </c>
       <c r="E184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.580038845539093</v>
+        <v>0.9981878399848938</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9373764395713806</v>
+        <v>0.9987861514091492</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4522902965545654</v>
+        <v>0.9853854775428772</v>
       </c>
     </row>
     <row r="187">
@@ -5658,19 +5658,19 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E187" t="b">
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.5610493421554565</v>
+        <v>0.9370344877243042</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.8627007603645325</v>
+        <v>0.9953587651252747</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.3963577151298523</v>
+        <v>0.9963142275810242</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9512104392051697</v>
+        <v>0.9990149736404419</v>
       </c>
     </row>
     <row r="191">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.5761544704437256</v>
+        <v>0.6937741637229919</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9333040714263916</v>
+        <v>0.9961751699447632</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E193" t="b">
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.8398314714431763</v>
+        <v>0.9421768188476562</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9333040714263916</v>
+        <v>0.941600501537323</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.8245995044708252</v>
+        <v>0.8301932215690613</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9559120535850525</v>
+        <v>0.9995158910751343</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9451735615730286</v>
+        <v>0.9991119503974915</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.7034602165222168</v>
+        <v>0.9989894032478333</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.8313891887664795</v>
+        <v>0.9513504505157471</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9357931613922119</v>
+        <v>0.5398305058479309</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.4641434252262115</v>
+        <v>0.9983123540878296</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.7654792666435242</v>
+        <v>0.5930797457695007</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9333040714263916</v>
+        <v>0.7833453416824341</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.5760689377784729</v>
+        <v>0.9841002225875854</v>
       </c>
     </row>
     <row r="205">
@@ -6162,19 +6162,19 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E205" t="b">
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.6789795756340027</v>
+        <v>0.7827324867248535</v>
       </c>
     </row>
     <row r="206">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6199,10 +6199,10 @@
         </is>
       </c>
       <c r="E206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.5869235396385193</v>
+        <v>0.9988975524902344</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.856354832649231</v>
+        <v>0.963978111743927</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.8202796578407288</v>
+        <v>0.9683060050010681</v>
       </c>
     </row>
     <row r="209">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="E209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9333040714263916</v>
+        <v>0.7314888834953308</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.4221846461296082</v>
+        <v>0.9891762137413025</v>
       </c>
     </row>
   </sheetData>
